--- a/TCC2/Results/Teste_0_importance.xlsx
+++ b/TCC2/Results/Teste_0_importance.xlsx
@@ -533,28 +533,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05113031185903261</v>
+        <v>0.05327415797539324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04862464436306297</v>
+        <v>0.04523145030390987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2584050160764952</v>
+        <v>0.2612823607478387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1638517046400774</v>
+        <v>0.1634574075136959</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2836039185805318</v>
+        <v>0.2836876442198095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02883908688572771</v>
+        <v>0.0289103716842631</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008892747202365457</v>
+        <v>0.008734639573603554</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1566525703927067</v>
+        <v>0.1554219679814863</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -615,28 +615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.633961471138986</v>
+        <v>0.6329166974694475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006063469777361494</v>
+        <v>0.006463320396543767</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1079590826955736</v>
+        <v>0.1069563332315876</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01516283606614398</v>
+        <v>0.01472130627497678</v>
       </c>
       <c r="F5" t="n">
-        <v>0.166474537050014</v>
+        <v>0.166694361733796</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008805160612689216</v>
+        <v>0.00831072281251966</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002928585967015646</v>
+        <v>0.003236745950399998</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05864485669221598</v>
+        <v>0.06070051213072888</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -697,28 +697,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03253414048819591</v>
+        <v>0.03616509674372524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03099914756484871</v>
+        <v>0.02838676533310112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3132369558917082</v>
+        <v>0.3092547667343902</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1117135269255369</v>
+        <v>0.1125662635104972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2647324203034359</v>
+        <v>0.2616088190620295</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03185280482256886</v>
+        <v>0.03205671819827949</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007998230382685585</v>
+        <v>0.008048957964381719</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2069327736210199</v>
+        <v>0.2119126124535956</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -779,28 +779,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04393867163090135</v>
+        <v>0.03955214101192617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03184060254941681</v>
+        <v>0.03600444568293461</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3855479108362292</v>
+        <v>0.3900065614147335</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1031073201224715</v>
+        <v>0.1021163464826955</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2182445051811974</v>
+        <v>0.2166593771766614</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04260594296791467</v>
+        <v>0.0422302553466975</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005678222113932824</v>
+        <v>0.005919543440464735</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1690368245979362</v>
+        <v>0.1675113294438866</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -861,28 +861,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1721748099198963</v>
+        <v>0.1643106026873019</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1453404881558903</v>
+        <v>0.1580935532237618</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1627946091811549</v>
+        <v>0.1606228640377437</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03227031444323031</v>
+        <v>0.03250238493540041</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2456704919852526</v>
+        <v>0.2262468134232483</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02091475993135159</v>
+        <v>0.02121698426927618</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1366065438236103</v>
+        <v>0.1481215069991147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08422798255961365</v>
+        <v>0.08888529042415293</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2179045934841658</v>
+        <v>0.217754316178691</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1582552939876864</v>
+        <v>0.1558510296631271</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3417128969919818</v>
+        <v>0.3390216202846408</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02818954846671384</v>
+        <v>0.02742867628046103</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002996053624245554</v>
+        <v>0.0004000990153790009</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2536380617070276</v>
+        <v>0.2595442585777012</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>

--- a/TCC2/Results/Teste_0_importance.xlsx
+++ b/TCC2/Results/Teste_0_importance.xlsx
@@ -533,28 +533,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05327415797539324</v>
+        <v>0.05036926603476129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04523145030390987</v>
+        <v>0.04810577851090812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2612823607478387</v>
+        <v>0.2593900765466494</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1634574075136959</v>
+        <v>0.1638837631406302</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2836876442198095</v>
+        <v>0.2822226973097523</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0289103716842631</v>
+        <v>0.03063995123661579</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008734639573603554</v>
+        <v>0.009700816207382813</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1554219679814863</v>
+        <v>0.1556876510133002</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -615,28 +615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6329166974694475</v>
+        <v>0.6327793089254982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006463320396543767</v>
+        <v>0.006783646948945634</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1069563332315876</v>
+        <v>0.1066881310663325</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01472130627497678</v>
+        <v>0.01540081225901808</v>
       </c>
       <c r="F5" t="n">
-        <v>0.166694361733796</v>
+        <v>0.1660904133886679</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00831072281251966</v>
+        <v>0.008363622570634641</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003236745950399998</v>
+        <v>0.003428890017103599</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06070051213072888</v>
+        <v>0.06046517482379939</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -697,28 +697,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03616509674372524</v>
+        <v>0.02960493329126054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02838676533310112</v>
+        <v>0.03483615317030731</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3092547667343902</v>
+        <v>0.3106804032362739</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1125662635104972</v>
+        <v>0.1120979159246963</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2616088190620295</v>
+        <v>0.260766600949732</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03205671819827949</v>
+        <v>0.03198024842939234</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008048957964381719</v>
+        <v>0.00806672596056306</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2119126124535956</v>
+        <v>0.2119670190377746</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -779,28 +779,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03955214101192617</v>
+        <v>0.037671776761382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03600444568293461</v>
+        <v>0.03819856916820293</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3900065614147335</v>
+        <v>0.3900002457404643</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1021163464826955</v>
+        <v>0.1031396469016726</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2166593771766614</v>
+        <v>0.2153208856039616</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0422302553466975</v>
+        <v>0.04245174602176691</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005919543440464735</v>
+        <v>0.005802853835911848</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1675113294438866</v>
+        <v>0.167414275966638</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -861,28 +861,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1643106026873019</v>
+        <v>0.1449532778103223</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1580935532237618</v>
+        <v>0.1758429575723237</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1606228640377437</v>
+        <v>0.1583528749052667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03250238493540041</v>
+        <v>0.03332820444540429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2262468134232483</v>
+        <v>0.2437663247539522</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02121698426927618</v>
+        <v>0.02175476080943349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1481215069991147</v>
+        <v>0.1347931964070899</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08888529042415293</v>
+        <v>0.08720840329620741</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.217754316178691</v>
+        <v>0.2194636015344086</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1558510296631271</v>
+        <v>0.1583395034170087</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3390216202846408</v>
+        <v>0.3342732968973308</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02742867628046103</v>
+        <v>0.02803793712424213</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0004000990153790009</v>
+        <v>0.0003563260142842282</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2595442585777012</v>
+        <v>0.2595293350127256</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>

--- a/TCC2/Results/Teste_0_importance.xlsx
+++ b/TCC2/Results/Teste_0_importance.xlsx
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2314226031303406</v>
+        <v>0.231422558426857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1143839955329895</v>
+        <v>0.1143839657306671</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3184646666049957</v>
+        <v>0.318465530872345</v>
       </c>
       <c r="F2" t="n">
-        <v>0.252746194601059</v>
+        <v>0.2527454197406769</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08298253268003464</v>
+        <v>0.08298246562480927</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -533,28 +533,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05036926603476129</v>
+        <v>0.0548454489884907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04810577851090812</v>
+        <v>0.04582905451106827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2593900765466494</v>
+        <v>0.263174374671307</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1638837631406302</v>
+        <v>0.1635908472856442</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2822226973097523</v>
+        <v>0.2809899778544068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03063995123661579</v>
+        <v>0.02866389829155706</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009700816207382813</v>
+        <v>0.007939512255426244</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1556876510133002</v>
+        <v>0.1549668861420996</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.936994731426239</v>
+        <v>0.9369946718215942</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004382646176964045</v>
+        <v>0.004382661078125238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009427625685930252</v>
+        <v>0.009427628479897976</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003336579771712422</v>
+        <v>0.003336574882268906</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04160494357347488</v>
+        <v>0.04160499572753906</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004253489430993795</v>
+        <v>0.004253470338881016</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -615,28 +615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6327793089254982</v>
+        <v>0.6339936082573854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006783646948945634</v>
+        <v>0.006050023969063008</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1066881310663325</v>
+        <v>0.1069998111021354</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01540081225901808</v>
+        <v>0.0157425623229015</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1660904133886679</v>
+        <v>0.16534143884752</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008363622570634641</v>
+        <v>0.00849032579017393</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003428890017103599</v>
+        <v>0.00314058209235901</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06046517482379939</v>
+        <v>0.06024164761846187</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2345685064792633</v>
+        <v>0.2345679998397827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1680820733308792</v>
+        <v>0.1680820286273956</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1569110602140427</v>
+        <v>0.1569130569696426</v>
       </c>
       <c r="F6" t="n">
-        <v>0.319956362247467</v>
+        <v>0.3199545741081238</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1204820275306702</v>
+        <v>0.1204823330044746</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -697,28 +697,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02960493329126054</v>
+        <v>0.03150821340979699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03483615317030731</v>
+        <v>0.03195880296326108</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3106804032362739</v>
+        <v>0.3138441203722505</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1120979159246963</v>
+        <v>0.1125299279167993</v>
       </c>
       <c r="F7" t="n">
-        <v>0.260766600949732</v>
+        <v>0.2654428538549337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03198024842939234</v>
+        <v>0.03111135848879178</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00806672596056306</v>
+        <v>0.00806374796836848</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2119670190377746</v>
+        <v>0.2055409750257982</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2897045612335205</v>
+        <v>0.2897038459777832</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2068553268909454</v>
+        <v>0.2068547308444977</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1494602113962173</v>
+        <v>0.1494611948728561</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2314733564853668</v>
+        <v>0.2314738035202026</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1225065290927887</v>
+        <v>0.1225064545869827</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -779,28 +779,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.037671776761382</v>
+        <v>0.04364720849524976</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03819856916820293</v>
+        <v>0.03148610589880359</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3900002457404643</v>
+        <v>0.3873648529413481</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1031396469016726</v>
+        <v>0.1041384721518748</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2153208856039616</v>
+        <v>0.216891893178322</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04245174602176691</v>
+        <v>0.04151019671616542</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005802853835911848</v>
+        <v>0.005480198722093874</v>
       </c>
       <c r="I9" t="n">
-        <v>0.167414275966638</v>
+        <v>0.1694810718961425</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.599654495716095</v>
+        <v>0.5996537208557129</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05568497255444527</v>
+        <v>0.05568494275212288</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02625128068029881</v>
+        <v>0.02625130489468575</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2811761796474457</v>
+        <v>0.2811768352985382</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03723301365971565</v>
+        <v>0.03723308444023132</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -861,28 +861,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1449532778103223</v>
+        <v>0.1741337551826438</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1758429575723237</v>
+        <v>0.1486988077129163</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1583528749052667</v>
+        <v>0.1599841459247194</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03332820444540429</v>
+        <v>0.0324373922652573</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2437663247539522</v>
+        <v>0.2472793124328523</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02175476080943349</v>
+        <v>0.0214918697936382</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1347931964070899</v>
+        <v>0.1300061882015403</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08720840329620741</v>
+        <v>0.08596852848643251</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1210851892828941</v>
+        <v>0.1210847198963165</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2426108121871948</v>
+        <v>0.2426119744777679</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4188278615474701</v>
+        <v>0.4188287854194641</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2174761593341827</v>
+        <v>0.2174745947122574</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2194636015344086</v>
+        <v>0.2160635736302022</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1583395034170087</v>
+        <v>0.1579424364029309</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3342732968973308</v>
+        <v>0.3277444631669376</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02803793712424213</v>
+        <v>0.02831260283575574</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0003563260142842282</v>
+        <v>0.0004702616283275996</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2595293350127256</v>
+        <v>0.2694666623358459</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>

--- a/TCC2/Results/Teste_0_importance.xlsx
+++ b/TCC2/Results/Teste_0_importance.xlsx
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231422558426857</v>
+        <v>0.2314226031303406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1143839657306671</v>
+        <v>0.1143839955329895</v>
       </c>
       <c r="E2" t="n">
-        <v>0.318465530872345</v>
+        <v>0.3184646666049957</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2527454197406769</v>
+        <v>0.252746194601059</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08298246562480927</v>
+        <v>0.08298253268003464</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -533,28 +533,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0548454489884907</v>
+        <v>0.05750350437988928</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04582905451106827</v>
+        <v>0.04770267507649539</v>
       </c>
       <c r="D3" t="n">
-        <v>0.263174374671307</v>
+        <v>0.2591552215284512</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1635908472856442</v>
+        <v>0.1627562664149783</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2809899778544068</v>
+        <v>0.2778930669808699</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02866389829155706</v>
+        <v>0.02919147732955394</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007939512255426244</v>
+        <v>0.00884504677044071</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1549668861420996</v>
+        <v>0.1569527415193214</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9369946718215942</v>
+        <v>0.936994731426239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004382661078125238</v>
+        <v>0.004382646176964045</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009427628479897976</v>
+        <v>0.009427625685930252</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003336574882268906</v>
+        <v>0.003336579771712422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04160499572753906</v>
+        <v>0.04160494357347488</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004253470338881016</v>
+        <v>0.004253489430993795</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -615,28 +615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6339936082573854</v>
+        <v>0.6315603348084461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006050023969063008</v>
+        <v>0.006715838647684835</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1069998111021354</v>
+        <v>0.1069227104431135</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0157425623229015</v>
+        <v>0.01572254849311948</v>
       </c>
       <c r="F5" t="n">
-        <v>0.16534143884752</v>
+        <v>0.1649466906750665</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00849032579017393</v>
+        <v>0.009873933077552986</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00314058209235901</v>
+        <v>0.003616596255687817</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06024164761846187</v>
+        <v>0.06064134759932851</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2345679998397827</v>
+        <v>0.2345685064792633</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1680820286273956</v>
+        <v>0.1680820733308792</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1569130569696426</v>
+        <v>0.1569110602140427</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3199545741081238</v>
+        <v>0.319956362247467</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1204823330044746</v>
+        <v>0.1204820275306702</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -697,28 +697,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03150821340979699</v>
+        <v>0.02744851390856343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03195880296326108</v>
+        <v>0.034398207296018</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3138441203722505</v>
+        <v>0.3131989242078554</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1125299279167993</v>
+        <v>0.1116635934400169</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2654428538549337</v>
+        <v>0.2649008038169237</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03111135848879178</v>
+        <v>0.03156972340820098</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00806374796836848</v>
+        <v>0.007877867885781232</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2055409750257982</v>
+        <v>0.2089423660366404</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2897038459777832</v>
+        <v>0.2897045612335205</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2068547308444977</v>
+        <v>0.2068553268909454</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1494611948728561</v>
+        <v>0.1494602113962173</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2314738035202026</v>
+        <v>0.2314733564853668</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1225064545869827</v>
+        <v>0.1225065290927887</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -779,28 +779,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04364720849524976</v>
+        <v>0.03815250539249027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03148610589880359</v>
+        <v>0.03807411033188038</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3873648529413481</v>
+        <v>0.3874003712793875</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1041384721518748</v>
+        <v>0.1008697304693311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.216891893178322</v>
+        <v>0.2186185334278405</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04151019671616542</v>
+        <v>0.0419406445271685</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005480198722093874</v>
+        <v>0.005568547300103406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1694810718961425</v>
+        <v>0.1693755572717985</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5996537208557129</v>
+        <v>0.599654495716095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05568494275212288</v>
+        <v>0.05568497255444527</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02625130489468575</v>
+        <v>0.02625128068029881</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2811768352985382</v>
+        <v>0.2811761796474457</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03723308444023132</v>
+        <v>0.03723301365971565</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -861,28 +861,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1741337551826438</v>
+        <v>0.1693907474298008</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1486988077129163</v>
+        <v>0.1519876583232267</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1599841459247194</v>
+        <v>0.1603626457499928</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0324373922652573</v>
+        <v>0.03261890936029189</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2472793124328523</v>
+        <v>0.2384331787567164</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0214918697936382</v>
+        <v>0.02151956945364007</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1300061882015403</v>
+        <v>0.1394412189992286</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08596852848643251</v>
+        <v>0.08624607192710275</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1210847198963165</v>
+        <v>0.1210851892828941</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2426119744777679</v>
+        <v>0.2426108121871948</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4188287854194641</v>
+        <v>0.4188278615474701</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2174745947122574</v>
+        <v>0.2174761593341827</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2160635736302022</v>
+        <v>0.2173911614172404</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1579424364029309</v>
+        <v>0.1563800080554954</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3277444631669376</v>
+        <v>0.3419849354205065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02831260283575574</v>
+        <v>0.02727709169800686</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0004702616283275996</v>
+        <v>0.0005205655659686236</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2694666623358459</v>
+        <v>0.2564462378427823</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
